--- a/docs/Supplemental_Table_1.xlsx
+++ b/docs/Supplemental_Table_1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moorer/projects/ZetaHunter/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129DA251-75EC-944F-8B43-3ADD54ECDE80}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="27180" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="27180" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$E$230</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -811,6 +817,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> PV-1</t>
     </r>
@@ -823,6 +830,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> JV-1</t>
     </r>
@@ -930,6 +938,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Mariprofundus </t>
     </r>
@@ -938,6 +947,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>sp. SDT4S14</t>
     </r>
@@ -950,6 +960,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> sp. GSB2</t>
     </r>
@@ -1022,6 +1033,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>M34</t>
     </r>
@@ -1399,6 +1411,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ghiorsea bivora</t>
     </r>
@@ -1407,6 +1420,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> SV-108</t>
     </r>
@@ -1417,6 +1431,7 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ghiorsea bivora</t>
     </r>
@@ -1424,6 +1439,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> TAG-1</t>
     </r>
@@ -1435,6 +1451,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Mariprofundus</t>
     </r>
@@ -1443,6 +1460,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1452,6 +1470,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ferrooxydans</t>
     </r>
@@ -1460,6 +1479,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> JV-1</t>
     </r>
@@ -1470,6 +1490,7 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Mariprofundus</t>
     </r>
@@ -1477,6 +1498,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> sp. SC-2</t>
     </r>
@@ -1488,6 +1510,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Mariprofundus micogutta</t>
     </r>
@@ -1496,6 +1519,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DIS-1</t>
     </r>
@@ -1506,6 +1530,7 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Mariprofundus micogutta</t>
     </r>
@@ -1513,6 +1538,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> ET2</t>
     </r>
@@ -1524,6 +1550,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Mariprofundus aestuarium</t>
     </r>
@@ -1532,6 +1559,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> CP-5</t>
     </r>
@@ -1543,6 +1571,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Mariprofundus</t>
     </r>
@@ -1551,6 +1580,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> sp. EKF-M39</t>
     </r>
@@ -1562,6 +1592,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Mariprofundus ferrinatatus</t>
     </r>
@@ -1570,6 +1601,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> CP-8</t>
     </r>
@@ -1584,7 +1616,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1613,21 +1645,25 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2554,868 +2590,876 @@
     </xf>
   </cellXfs>
   <cellStyles count="859">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="858" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3740,14 +3784,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="24" style="4" bestFit="1" customWidth="1"/>
@@ -3757,13 +3801,13 @@
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="8" customHeight="1"/>
-    <row r="3" spans="1:5" ht="32" customHeight="1">
+    <row r="2" spans="1:5" ht="8" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>433</v>
       </c>
@@ -3780,7 +3824,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -3797,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3814,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -3831,7 +3875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -3848,7 +3892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -3865,7 +3909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -3882,7 +3926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -3899,7 +3943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -3916,7 +3960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -3933,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -3950,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>1</v>
       </c>
@@ -3967,7 +4011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -3984,7 +4028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -4001,7 +4045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -4018,7 +4062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -4035,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -4052,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -4069,7 +4113,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -4086,7 +4130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1</v>
       </c>
@@ -4103,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -4120,7 +4164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -4137,7 +4181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>2</v>
       </c>
@@ -4154,7 +4198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -4171,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>2</v>
       </c>
@@ -4188,7 +4232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>2</v>
       </c>
@@ -4205,7 +4249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>2</v>
       </c>
@@ -4222,7 +4266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -4239,7 +4283,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>2</v>
       </c>
@@ -4256,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -4273,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>2</v>
       </c>
@@ -4290,7 +4334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>2</v>
       </c>
@@ -4307,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>2</v>
       </c>
@@ -4324,7 +4368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>2</v>
       </c>
@@ -4341,7 +4385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>2</v>
       </c>
@@ -4358,7 +4402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>2</v>
       </c>
@@ -4375,7 +4419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>2</v>
       </c>
@@ -4392,7 +4436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>2</v>
       </c>
@@ -4409,7 +4453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>2</v>
       </c>
@@ -4426,7 +4470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -4443,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>2</v>
       </c>
@@ -4460,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2</v>
       </c>
@@ -4477,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>2</v>
       </c>
@@ -4494,7 +4538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>2</v>
       </c>
@@ -4511,7 +4555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>2</v>
       </c>
@@ -4528,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>2</v>
       </c>
@@ -4545,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>2</v>
       </c>
@@ -4562,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>2</v>
       </c>
@@ -4579,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>2</v>
       </c>
@@ -4596,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>2</v>
       </c>
@@ -4613,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>2</v>
       </c>
@@ -4630,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>2</v>
       </c>
@@ -4647,7 +4691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>3</v>
       </c>
@@ -4664,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>3</v>
       </c>
@@ -4681,7 +4725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>3</v>
       </c>
@@ -4698,7 +4742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>3</v>
       </c>
@@ -4715,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>3</v>
       </c>
@@ -4732,7 +4776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>3</v>
       </c>
@@ -4749,7 +4793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>4</v>
       </c>
@@ -4766,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>4</v>
       </c>
@@ -4783,7 +4827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>4</v>
       </c>
@@ -4800,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>4</v>
       </c>
@@ -4817,7 +4861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>4</v>
       </c>
@@ -4834,7 +4878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>4</v>
       </c>
@@ -4851,7 +4895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>4</v>
       </c>
@@ -4868,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>4</v>
       </c>
@@ -4885,7 +4929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>4</v>
       </c>
@@ -4902,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>4</v>
       </c>
@@ -4919,7 +4963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>4</v>
       </c>
@@ -4936,7 +4980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>4</v>
       </c>
@@ -4953,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>4</v>
       </c>
@@ -4970,7 +5014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>4</v>
       </c>
@@ -4987,7 +5031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>4</v>
       </c>
@@ -5004,7 +5048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>4</v>
       </c>
@@ -5021,7 +5065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>5</v>
       </c>
@@ -5038,7 +5082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>6</v>
       </c>
@@ -5055,7 +5099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>6</v>
       </c>
@@ -5072,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>6</v>
       </c>
@@ -5089,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>6</v>
       </c>
@@ -5106,7 +5150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>6</v>
       </c>
@@ -5123,7 +5167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>6</v>
       </c>
@@ -5140,7 +5184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>6</v>
       </c>
@@ -5157,7 +5201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>6</v>
       </c>
@@ -5174,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>6</v>
       </c>
@@ -5191,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>6</v>
       </c>
@@ -5208,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>6</v>
       </c>
@@ -5225,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>6</v>
       </c>
@@ -5242,7 +5286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>6</v>
       </c>
@@ -5259,7 +5303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>6</v>
       </c>
@@ -5276,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>6</v>
       </c>
@@ -5293,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>6</v>
       </c>
@@ -5310,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>6</v>
       </c>
@@ -5327,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>6</v>
       </c>
@@ -5344,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>6</v>
       </c>
@@ -5361,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>6</v>
       </c>
@@ -5378,7 +5422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>7</v>
       </c>
@@ -5395,7 +5439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>7</v>
       </c>
@@ -5412,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>7</v>
       </c>
@@ -5429,7 +5473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>7</v>
       </c>
@@ -5446,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>8</v>
       </c>
@@ -5463,7 +5507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>8</v>
       </c>
@@ -5480,7 +5524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>8</v>
       </c>
@@ -5497,7 +5541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>9</v>
       </c>
@@ -5514,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>9</v>
       </c>
@@ -5531,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>9</v>
       </c>
@@ -5548,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>9</v>
       </c>
@@ -5565,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>9</v>
       </c>
@@ -5582,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>9</v>
       </c>
@@ -5599,7 +5643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>9</v>
       </c>
@@ -5616,7 +5660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>9</v>
       </c>
@@ -5633,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>9</v>
       </c>
@@ -5650,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>9</v>
       </c>
@@ -5667,7 +5711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>9</v>
       </c>
@@ -5684,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>9</v>
       </c>
@@ -5701,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>9</v>
       </c>
@@ -5718,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>9</v>
       </c>
@@ -5735,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>9</v>
       </c>
@@ -5752,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>9</v>
       </c>
@@ -5769,7 +5813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>9</v>
       </c>
@@ -5786,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>9</v>
       </c>
@@ -5803,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>10</v>
       </c>
@@ -5820,7 +5864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>10</v>
       </c>
@@ -5837,7 +5881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>10</v>
       </c>
@@ -5854,7 +5898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>10</v>
       </c>
@@ -5871,7 +5915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>10</v>
       </c>
@@ -5888,7 +5932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>10</v>
       </c>
@@ -5905,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>10</v>
       </c>
@@ -5922,7 +5966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>10</v>
       </c>
@@ -5939,7 +5983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>10</v>
       </c>
@@ -5956,7 +6000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>11</v>
       </c>
@@ -5973,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>11</v>
       </c>
@@ -5990,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>11</v>
       </c>
@@ -6007,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>11</v>
       </c>
@@ -6024,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>11</v>
       </c>
@@ -6041,7 +6085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>11</v>
       </c>
@@ -6058,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>11</v>
       </c>
@@ -6075,7 +6119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>12</v>
       </c>
@@ -6092,7 +6136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>12</v>
       </c>
@@ -6109,7 +6153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>13</v>
       </c>
@@ -6126,7 +6170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>13</v>
       </c>
@@ -6143,7 +6187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>13</v>
       </c>
@@ -6160,7 +6204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>14</v>
       </c>
@@ -6177,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>14</v>
       </c>
@@ -6194,7 +6238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>14</v>
       </c>
@@ -6211,7 +6255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>14</v>
       </c>
@@ -6228,7 +6272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>14</v>
       </c>
@@ -6245,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>14</v>
       </c>
@@ -6262,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>14</v>
       </c>
@@ -6279,7 +6323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>14</v>
       </c>
@@ -6296,7 +6340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>14</v>
       </c>
@@ -6313,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>14</v>
       </c>
@@ -6330,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>14</v>
       </c>
@@ -6347,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>14</v>
       </c>
@@ -6364,7 +6408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>14</v>
       </c>
@@ -6381,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>14</v>
       </c>
@@ -6398,7 +6442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>14</v>
       </c>
@@ -6415,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>14</v>
       </c>
@@ -6432,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>14</v>
       </c>
@@ -6449,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>14</v>
       </c>
@@ -6466,7 +6510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>15</v>
       </c>
@@ -6483,7 +6527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>15</v>
       </c>
@@ -6500,7 +6544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>15</v>
       </c>
@@ -6517,7 +6561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>15</v>
       </c>
@@ -6534,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>15</v>
       </c>
@@ -6551,7 +6595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>16</v>
       </c>
@@ -6568,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>16</v>
       </c>
@@ -6585,7 +6629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>16</v>
       </c>
@@ -6602,7 +6646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>17</v>
       </c>
@@ -6619,7 +6663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>18</v>
       </c>
@@ -6636,7 +6680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>18</v>
       </c>
@@ -6653,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>18</v>
       </c>
@@ -6670,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>18</v>
       </c>
@@ -6687,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>18</v>
       </c>
@@ -6704,7 +6748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>18</v>
       </c>
@@ -6721,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>18</v>
       </c>
@@ -6738,7 +6782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>18</v>
       </c>
@@ -6755,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>18</v>
       </c>
@@ -6772,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>18</v>
       </c>
@@ -6789,7 +6833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>19</v>
       </c>
@@ -6806,7 +6850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>20</v>
       </c>
@@ -6823,7 +6867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>21</v>
       </c>
@@ -6840,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>21</v>
       </c>
@@ -6857,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>22</v>
       </c>
@@ -6874,7 +6918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>22</v>
       </c>
@@ -6891,7 +6935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>23</v>
       </c>
@@ -6908,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>24</v>
       </c>
@@ -6925,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>25</v>
       </c>
@@ -6942,7 +6986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>26</v>
       </c>
@@ -6959,7 +7003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>26</v>
       </c>
@@ -6976,7 +7020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>27</v>
       </c>
@@ -6993,7 +7037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>27</v>
       </c>
@@ -7010,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>28</v>
       </c>
@@ -7027,7 +7071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>29</v>
       </c>
@@ -7044,7 +7088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>29</v>
       </c>
@@ -7061,7 +7105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>29</v>
       </c>
@@ -7078,7 +7122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>29</v>
       </c>
@@ -7095,7 +7139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>30</v>
       </c>
@@ -7112,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>31</v>
       </c>
@@ -7129,7 +7173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>32</v>
       </c>
@@ -7146,7 +7190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>33</v>
       </c>
@@ -7163,7 +7207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>34</v>
       </c>
@@ -7180,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>35</v>
       </c>
@@ -7197,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>36</v>
       </c>
@@ -7214,7 +7258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>37</v>
       </c>
@@ -7231,7 +7275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>38</v>
       </c>
@@ -7248,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="6">
         <v>39</v>
       </c>
@@ -7265,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="6">
         <v>40</v>
       </c>
@@ -7282,7 +7326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="6">
         <v>41</v>
       </c>
@@ -7299,7 +7343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="6">
         <v>42</v>
       </c>
@@ -7316,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>43</v>
       </c>
@@ -7333,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>44</v>
       </c>
@@ -7350,7 +7394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="6">
         <v>45</v>
       </c>
@@ -7367,7 +7411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="6">
         <v>46</v>
       </c>
@@ -7384,7 +7428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>47</v>
       </c>
@@ -7401,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="6">
         <v>48</v>
       </c>
@@ -7418,7 +7462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>49</v>
       </c>
@@ -7435,7 +7479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="6">
         <v>50</v>
       </c>
@@ -7452,7 +7496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="6">
         <v>51</v>
       </c>
@@ -7469,7 +7513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="6">
         <v>52</v>
       </c>
@@ -7486,7 +7530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>53</v>
       </c>
@@ -7503,7 +7547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>54</v>
       </c>
@@ -7520,7 +7564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" s="3" customFormat="1">
+    <row r="224" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>54</v>
       </c>
@@ -7537,7 +7581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" s="3" customFormat="1">
+    <row r="225" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>54</v>
       </c>
@@ -7554,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" s="3" customFormat="1">
+    <row r="226" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>55</v>
       </c>
@@ -7571,7 +7615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" s="3" customFormat="1">
+    <row r="227" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>56</v>
       </c>
@@ -7588,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" s="3" customFormat="1">
+    <row r="228" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>57</v>
       </c>
@@ -7605,7 +7649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" s="3" customFormat="1">
+    <row r="229" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>58</v>
       </c>
@@ -7622,7 +7666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" s="3" customFormat="1">
+    <row r="230" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>59</v>
       </c>
